--- a/Employee_Workbook.xlsx
+++ b/Employee_Workbook.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -445,10 +445,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="243" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -456,7 +456,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Employee_Name</t>
+          <t>Employee</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -466,17 +466,37 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>WorkDay</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>End</t>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Saturaday</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sunday</t>
         </is>
       </c>
     </row>
@@ -491,16 +511,30 @@
           <t>Manager</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.6666666666666666</v>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>8:00-16:00</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>9:00-17:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12:00-20:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13:00-21:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10:00-18:00</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -512,6 +546,22 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>HR</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>9:00-15:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12:00-20:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13:00-21:00</t>
         </is>
       </c>
     </row>
